--- a/data/outputs/management_altmetric/17.xlsx
+++ b/data/outputs/management_altmetric/17.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:CE64"/>
+  <dimension ref="A1:CF64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -782,6 +782,11 @@
           <t>citeulike</t>
         </is>
       </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>altmetric_score</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -1021,6 +1026,9 @@
       <c r="CE2" t="n">
         <v>0</v>
       </c>
+      <c r="CF2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1268,6 +1276,9 @@
       <c r="CE3" t="n">
         <v>0</v>
       </c>
+      <c r="CF3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1511,6 +1522,9 @@
       <c r="CE4" t="n">
         <v>0</v>
       </c>
+      <c r="CF4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1758,6 +1772,9 @@
       <c r="CE5" t="n">
         <v>0</v>
       </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2005,6 +2022,9 @@
       <c r="CE6" t="n">
         <v>0</v>
       </c>
+      <c r="CF6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2244,6 +2264,9 @@
       <c r="CE7" t="n">
         <v>0</v>
       </c>
+      <c r="CF7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2491,6 +2514,9 @@
       <c r="CE8" t="n">
         <v>0</v>
       </c>
+      <c r="CF8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2740,6 +2766,9 @@
       <c r="CE9" t="n">
         <v>0</v>
       </c>
+      <c r="CF9" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2987,6 +3016,9 @@
       <c r="CE10" t="n">
         <v>0</v>
       </c>
+      <c r="CF10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -3234,6 +3266,9 @@
       <c r="CE11" t="n">
         <v>0</v>
       </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3473,6 +3508,9 @@
       <c r="CE12" t="n">
         <v>0</v>
       </c>
+      <c r="CF12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3716,6 +3754,9 @@
       <c r="CE13" t="n">
         <v>0</v>
       </c>
+      <c r="CF13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3959,6 +4000,9 @@
       <c r="CE14" t="n">
         <v>0</v>
       </c>
+      <c r="CF14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -4212,6 +4256,9 @@
       <c r="CE15" t="n">
         <v>0</v>
       </c>
+      <c r="CF15" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -4459,6 +4506,9 @@
       <c r="CE16" t="n">
         <v>0</v>
       </c>
+      <c r="CF16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4702,6 +4752,9 @@
       <c r="CE17" t="n">
         <v>0</v>
       </c>
+      <c r="CF17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4941,6 +4994,9 @@
       <c r="CE18" t="n">
         <v>0</v>
       </c>
+      <c r="CF18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -5188,6 +5244,9 @@
       <c r="CE19" t="n">
         <v>0</v>
       </c>
+      <c r="CF19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -5435,6 +5494,9 @@
       <c r="CE20" t="n">
         <v>0</v>
       </c>
+      <c r="CF20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5690,6 +5752,9 @@
       <c r="CE21" t="n">
         <v>0</v>
       </c>
+      <c r="CF21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5933,6 +5998,9 @@
       <c r="CE22" t="n">
         <v>0</v>
       </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -6176,6 +6244,9 @@
       <c r="CE23" t="n">
         <v>0</v>
       </c>
+      <c r="CF23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -6417,6 +6488,9 @@
       <c r="CE24" t="n">
         <v>0</v>
       </c>
+      <c r="CF24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -6660,6 +6734,9 @@
       <c r="CE25" t="n">
         <v>0</v>
       </c>
+      <c r="CF25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6907,6 +6984,9 @@
       <c r="CE26" t="n">
         <v>0</v>
       </c>
+      <c r="CF26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -7154,6 +7234,9 @@
       <c r="CE27" t="n">
         <v>0</v>
       </c>
+      <c r="CF27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -7397,6 +7480,9 @@
       <c r="CE28" t="n">
         <v>0</v>
       </c>
+      <c r="CF28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -7638,6 +7724,9 @@
         <v>0</v>
       </c>
       <c r="CE29" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7877,6 +7966,9 @@
       <c r="CE30" t="n">
         <v>0</v>
       </c>
+      <c r="CF30" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -8124,6 +8216,9 @@
       <c r="CE31" t="n">
         <v>0</v>
       </c>
+      <c r="CF31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -8371,6 +8466,9 @@
       <c r="CE32" t="n">
         <v>0</v>
       </c>
+      <c r="CF32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -8616,6 +8714,9 @@
       <c r="CE33" t="n">
         <v>0</v>
       </c>
+      <c r="CF33" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -8855,6 +8956,9 @@
       <c r="CE34" t="n">
         <v>0</v>
       </c>
+      <c r="CF34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -9102,6 +9206,9 @@
       <c r="CE35" t="n">
         <v>0</v>
       </c>
+      <c r="CF35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -9353,6 +9460,9 @@
       <c r="CE36" t="n">
         <v>0</v>
       </c>
+      <c r="CF36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -9608,6 +9718,9 @@
       <c r="CE37" t="n">
         <v>0</v>
       </c>
+      <c r="CF37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -9851,6 +9964,9 @@
       <c r="CE38" t="n">
         <v>0</v>
       </c>
+      <c r="CF38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -10098,6 +10214,9 @@
       <c r="CE39" t="n">
         <v>0</v>
       </c>
+      <c r="CF39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -10341,6 +10460,9 @@
       <c r="CE40" t="n">
         <v>0</v>
       </c>
+      <c r="CF40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -10602,6 +10724,9 @@
       <c r="CE41" t="n">
         <v>0</v>
       </c>
+      <c r="CF41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -10845,6 +10970,9 @@
       <c r="CE42" t="n">
         <v>0</v>
       </c>
+      <c r="CF42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -11092,6 +11220,9 @@
       <c r="CE43" t="n">
         <v>0</v>
       </c>
+      <c r="CF43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -11335,6 +11466,9 @@
       <c r="CE44" t="n">
         <v>0</v>
       </c>
+      <c r="CF44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -11574,6 +11708,9 @@
       <c r="CE45" t="n">
         <v>0</v>
       </c>
+      <c r="CF45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -11825,6 +11962,9 @@
       <c r="CE46" t="n">
         <v>0</v>
       </c>
+      <c r="CF46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -12064,6 +12204,9 @@
       <c r="CE47" t="n">
         <v>0</v>
       </c>
+      <c r="CF47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -12303,6 +12446,9 @@
       <c r="CE48" t="n">
         <v>0</v>
       </c>
+      <c r="CF48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -12542,6 +12688,9 @@
       <c r="CE49" t="n">
         <v>0</v>
       </c>
+      <c r="CF49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -12781,6 +12930,9 @@
       <c r="CE50" t="n">
         <v>0</v>
       </c>
+      <c r="CF50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -13028,6 +13180,9 @@
       <c r="CE51" t="n">
         <v>0</v>
       </c>
+      <c r="CF51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -13267,6 +13422,9 @@
       <c r="CE52" t="n">
         <v>0</v>
       </c>
+      <c r="CF52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -13514,6 +13672,9 @@
       <c r="CE53" t="n">
         <v>0</v>
       </c>
+      <c r="CF53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -13755,6 +13916,9 @@
       <c r="CE54" t="n">
         <v>0</v>
       </c>
+      <c r="CF54" t="n">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -14010,6 +14174,9 @@
       <c r="CE55" t="n">
         <v>0</v>
       </c>
+      <c r="CF55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -14249,6 +14416,9 @@
       <c r="CE56" t="n">
         <v>0</v>
       </c>
+      <c r="CF56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -14496,6 +14666,9 @@
       <c r="CE57" t="n">
         <v>0</v>
       </c>
+      <c r="CF57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -14741,6 +14914,9 @@
       <c r="CE58" t="n">
         <v>0</v>
       </c>
+      <c r="CF58" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -14980,6 +15156,9 @@
       <c r="CE59" t="n">
         <v>0</v>
       </c>
+      <c r="CF59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -15227,6 +15406,9 @@
       <c r="CE60" t="n">
         <v>0</v>
       </c>
+      <c r="CF60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -15468,6 +15650,9 @@
       <c r="CE61" t="n">
         <v>0</v>
       </c>
+      <c r="CF61" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -15707,6 +15892,9 @@
       <c r="CE62" t="n">
         <v>0</v>
       </c>
+      <c r="CF62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -15950,6 +16138,9 @@
       <c r="CE63" t="n">
         <v>0</v>
       </c>
+      <c r="CF63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -16189,6 +16380,9 @@
       <c r="CE64" t="n">
         <v>0</v>
       </c>
+      <c r="CF64" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
